--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value985.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value985.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.520115491350795</v>
+        <v>0.7287117838859558</v>
       </c>
       <c r="B1">
-        <v>4.233189809782545</v>
+        <v>0.7044810056686401</v>
       </c>
       <c r="C1">
-        <v>4.592784941687899</v>
+        <v>0.6323136687278748</v>
       </c>
       <c r="D1">
-        <v>1.335381546838658</v>
+        <v>2.546707391738892</v>
       </c>
       <c r="E1">
-        <v>0.8123232789837829</v>
+        <v>1.491896510124207</v>
       </c>
     </row>
   </sheetData>
